--- a/artifacts/recipes/new_data/allrecipescom/chineese/chineese_seafood.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/chineese/chineese_seafood.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641524-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Chinese Seafood Main Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641529-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yb-SjGlFBKMfcu0sZ7KIlHOWbqc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/5363963-9a3b79fedc904d54a3e06ea150a92518.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12811/scallops-a-la-peking-house/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Scallops a la Peking House</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon cornstarch\n\n\n¼ cup dry white wine\n\n\n4 tablespoons peanut oil\n\n\n2  green onions, minced\n\n\n1 ½ pounds scallops\n\n\n1 cup clam juice\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground cayenne pepper\n\n\n½ teaspoon ground ginger\n\n\n⅓ (8 ounce) can sliced water chestnuts"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon cornstarch\n\n\n¼ cup dry white wine\n\n\n4 tablespoons peanut oil\n\n\n2  green onions, minced\n\n\n1 ½ pounds scallops\n\n\n1 cup clam juice\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground cayenne pepper\n\n\n½ teaspoon ground ginger\n\n\n⅓ (8 ounce) can sliced water chestnuts'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl, dissolve cornstarch in 1/4 cup dry white wine. Set aside."},{"recipe_directions":"In a large skillet, heat peanut oil on medium-high heat until almost smoking. Remove the skillet from heat and add green onions. Return the skillet to heat and cook, stirring constantly, until the scallions are soft."},{"recipe_directions":"Add the scallops to the skillet. Cook the scallops for 1 minute, stirring constantly."},{"recipe_directions":"Add clam juice or broth to the skillet. Continue stirring. Add salt and red pepper or hot sauce to taste. Stir in ginger and water chestnuts."},{"recipe_directions":"Stir in the mixture of dissolved cornstarch and white wine. Turn the heat to high, and cook the mixture until it boils and thickens."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n15g \nFat\n\n\n9g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641533-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -267,59 +604,55 @@
 Hakka-Style Squid and Pork Belly Stir-Fry</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265491/hakka-style-squid-and-pork-belly-stir-fry/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Hakka-Style Squid and Pork Belly Stir-Fry</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n½ pound pork belly, or more to taste\n\n\n1 (6 ounce) package dried bean curd\n\n\n1  squid\n\n\n1  green bell pepper, chopped\n\n\n1 clove garlic, chopped\n\n\n¼ cup water\n\n\n2 ½ tablespoons soy sauce\n\n\n4 teaspoons cooking wine\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon ground white pepper\n\n\n¾ cup chopped celery\n\n\n1 cup garlic sprouts, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n½ pound pork belly, or more to taste\n\n\n1 (6 ounce) package dried bean curd\n\n\n1  squid\n\n\n1  green bell pepper, chopped\n\n\n1 clove garlic, chopped\n\n\n¼ cup water\n\n\n2 ½ tablespoons soy sauce\n\n\n4 teaspoons cooking wine\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon ground white pepper\n\n\n¾ cup chopped celery\n\n\n1 cup garlic sprouts, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Add pork belly and fry until oil is released, 5 to 7 minutes. Add bean curd and fry until it turns yellow, 3 to 5 minutes. Add squid, bell pepper, and garlic; fry another 3 to 5 minutes."},{"recipe_directions":"Add water, soy sauce, and cooking wine to the skillet with the pork belly mixture. Add sugar and white pepper; fry for 3 minutes. Add celery and garlic sprouts; fry until fragrant, about 3 minutes more."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"367\nCalories\n\n\n16g \nFat\n\n\n28g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641537-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -331,59 +664,55 @@
 Jiaozi (Chinese Pork and Shrimp Dumplings)</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284390/jiaozi-chinese-pork-and-shrimp-dumplings/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Jiaozi (Chinese Pork and Shrimp Dumplings)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups cold water, divided\n\n\n1 tablespoon cornstarch\n\n\n1 pound fatty ground pork\n\n\n½ pound uncooked medium shrimp - peeled, deveined, and chopped\n\n\n1 head Napa cabbage, finely chopped\n\n\n1 bunch fresh chives, chopped\n\n\n3 stalks green onions, chopped\n\n\n2 tablespoons minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n2 teaspoons dry white wine\n\n\n1 teaspoon soy sauce, or more to taste\n\n\n1 teaspoon sesame oil, or to taste\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups cold water, divided\n\n\n1 tablespoon cornstarch\n\n\n1 pound fatty ground pork\n\n\n½ pound uncooked medium shrimp - peeled, deveined, and chopped\n\n\n1 head Napa cabbage, finely chopped\n\n\n1 bunch fresh chives, chopped\n\n\n3 stalks green onions, chopped\n\n\n2 tablespoons minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n2 teaspoons dry white wine\n\n\n1 teaspoon soy sauce, or more to taste\n\n\n1 teaspoon sesame oil, or to taste\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 1/2 cup cold water and cornstarch in a bowl until combined. Combine the filling: pork, shrimp, cabbage, chives, onions, ginger, garlic, cornstarch paste, wine, soy sauce, sesame oil, salt, and pepper in a large bowl and mix well."},{"recipe_directions":"Mix flour and remaining water and knead the dough into a smooth ball. Use extra water/flour to get a slightly smooth and sticky ball. Let sit for 30 minutes. Divide the dough into little balls that roll out into 4-inch diameter circles. You will have about 30 dough circles."},{"recipe_directions":"Place 2 teaspoons of the filling onto the middle of each of the dough circles."},{"recipe_directions":"Wrap by folding the dough circles with filling in the middle in half and pinching the edges to seal."},{"recipe_directions":"Bring a large pot of salted water to a boil. Gently add about 10 dumplings into the boiling water. Bring the water back to a boil and add 1/2 cup more cold water. Repeat this twice before taking the dumplings out to serve; the pork filling should no longer be pink and shrimp should be firm. Repeat the boiling and adding of cold water with each batch of dumplings. Adding the cold water between boils reduces the starch buildup in the water."},{"recipe_directions":"Use Xiao Xing wine if you can find it."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"279\nCalories\n\n\n10g \nFat\n\n\n28g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641542-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Q_xCSL02BOS9dKnuKZnCw_JVBtI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/4576879-f5ec80019f8a4900973f2856f7434360.jpg"
@@ -396,59 +725,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258675/fried-prawns-in-soy-sauce/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Fried Prawns in Soy Sauce</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n28 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"7 tablespoons vegetable oil\n\n\n1 ¾ pounds shell-on prawns, deveined and patted dry\n\n\n¼ cup finely chopped spring onions\n\n\n1 (4 inch) piece fresh ginger, finely chopped\n\n\n2 tablespoons chicken stock\n\n\n2 tablespoons white sugar\n\n\n1 tablespoon rice wine\n\n\n2 teaspoons soy sauce\n\n\n1 teaspoon chicken bouillon granules, or to taste\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '7 tablespoons vegetable oil\n\n\n1 ¾ pounds shell-on prawns, deveined and patted dry\n\n\n¼ cup finely chopped spring onions\n\n\n1 (4 inch) piece fresh ginger, finely chopped\n\n\n2 tablespoons chicken stock\n\n\n2 tablespoons white sugar\n\n\n1 tablespoon rice wine\n\n\n2 teaspoons soy sauce\n\n\n1 teaspoon chicken bouillon granules, or to taste\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 5 tablespoons oil in a wok over medium-high heat. Add prawns; saute until pink, about 3 minutes. Transfer to a plate."},{"recipe_directions":"Pour remaining 2 tablespoons oil into the wok. Add spring onions and ginger; cook and stir until fragrant, about 2 minutes. Return prawns to the wok; cook and stir for 1 minute. Add chicken stock, sugar, rice wine, soy sauce, bouillon granules, and salt; bring sauce to a boil. Reduce heat to low; simmer until flavors combine, about 2 minutes."},{"recipe_directions":"Arrange prawns on a serving plate; pour sauce on top."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"269\nCalories\n\n\n17g \nFat\n\n\n6g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641548-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vB_kEK_cacy_VeCJwXAyJ8cybho=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/213117-89c87aad41274225a38f7c4cab4e6e6f.jpg"
@@ -461,59 +786,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/171931/wonton-soup-without-ginger/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Wonton Soup without Ginger</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon sesame oil\n\n\n1 pound lean ground pork\n\n\n¼ pound diced raw shrimp\n\n\n1  green onion, chopped (Optional)\n\n\n40  wonton wrappers\n\n\n2  green onions (Optional)\n\n\n1  egg, beaten\n\n\n9 cups chicken stock\n\n\n¼ cup soy sauce\n\n\n2 tablespoons sesame oil\n\n\n2 cups chopped bok choy\n\n\n1 cup green onions, chopped (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon sesame oil\n\n\n1 pound lean ground pork\n\n\n¼ pound diced raw shrimp\n\n\n1  green onion, chopped (Optional)\n\n\n40  wonton wrappers\n\n\n2  green onions (Optional)\n\n\n1  egg, beaten\n\n\n9 cups chicken stock\n\n\n¼ cup soy sauce\n\n\n2 tablespoons sesame oil\n\n\n2 cups chopped bok choy\n\n\n1 cup green onions, chopped (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together sugar, cornstarch, oyster sauce, and 1 tablespoon sesame oil in a large bowl; add the ground pork, shrimp, and 1 chopped green onion and mix to combine."},{"recipe_directions":"Lay one wonton skin like a baseball diamond in front of you. Using your finger, brush beaten egg around the outer edge of the wonton skin. Place 1 tablespoon of pork mixture onto the middle of the wonton skin. Fold 'home run' corner to '2nd base' corner and press down creating a triangle. The meat filling lump is at the bottom of the triangle. Brush egg mixtures at the '1st base' and '3rd base' corners of the triangle. Fold each base corner over the meat filling lump and over each other. Brush egg mixture at the '2nd base/homerun' corner of the triangle and fold behind the meat filling lump. This is one wonton. Repeat until there are no more mixture or wrapper skins. Keep the wontons covered with a wet towel to prevent from drying.\""},{"recipe_directions":"Mix together the chicken stock, soy sauce, 2 tablespoons sesame oil, and 2 green onions in a pot over medium-high heat. Bring this to a boil; reduce heat to medium-low and simmer for 15 minutes. Add the bok choy and return to a boil until the bok choy is tender, about 5 minutes."},{"recipe_directions":"Bring a large pot of salted water to a boil; boil wontons for 3 to 5 minutes, stirring occasionally to prevent wontons from sticking to each other or to the edges of the pot."},{"recipe_directions":"Place wontons in a soup bowl and ladle soup over wontons to serve. Garnish with chopped green onions."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n15g \nFat\n\n\n28g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641554-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tCiEV2puWYZezWdX9aTlrPABmnU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/976656-baabbb03b60e4cc8b6b6540b36cf4a04.jpg"
@@ -526,59 +847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17401/cantonese-style-pork-and-shrimp-dumplings/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cantonese Style Pork and Shrimp Dumplings</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10 \n\n\nYield:\n40 dumplings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ pound ground pork\n\n\n1 cup chopped watercress\n\n\n½ (8 ounce) can water chestnuts, drained and chopped\n\n\n¼ cup chopped green onions\n\n\n1 tablespoon oyster sauce\n\n\n1 ½ tablespoons sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n1 (16 ounce) package round dumpling skins\n\n\n1 pound peeled and deveined medium shrimp"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ pound ground pork\n\n\n1 cup chopped watercress\n\n\n½ (8 ounce) can water chestnuts, drained and chopped\n\n\n¼ cup chopped green onions\n\n\n1 tablespoon oyster sauce\n\n\n1 ½ tablespoons sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n1 (16 ounce) package round dumpling skins\n\n\n1 pound peeled and deveined medium shrimp'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the pork, watercress, water chestnuts, green onion, oyster sauce, sesame oil, garlic, soy sauce, ground white pepper and salt and mix together well."},{"recipe_directions":"Place 1/2 teaspoonful of this filling onto each dumpling skin. Place 1 shrimp on the filling, slightly wet the edge of the dumpling skin, fold over and pinch with your fingers to form a seal all the way around."},{"recipe_directions":"To cook: Pan fry the dumplings in a large skillet over medium heat with oil for 15 minutes, turning over halfway through OR Place them in a pot of boiling water for 10 minutes; drain and serve in hot chicken broth."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n6g \nFat\n\n\n28g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641560-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2YBP1LZcpNERbwQd_-4PiLTHfzw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1300x0:1302x2):format(webp)/7905264-b5f4ed4be06f4a6680dfc69e381bfa14.jpg"
@@ -591,59 +908,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/53519/chinese-steamed-white-fish-fillet-with-tofu-cantonese-style/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Chinese Steamed White Fish Fillet with Tofu (Cantonese Style)</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  Thai chile, chopped\n\n\n2 cloves garlic, chopped\n\n\n1 (1/2 inch) piece fresh ginger, minced\n\n\n1 tablespoon black bean sauce\n\n\n2 tablespoons dark soy sauce\n\n\n2 tablespoons white soy sauce\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon white sugar\n\n\n1 pinch white pepper\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon cold water\n\n\n¾ pound white fish fillets\n\n\n1 (16 ounce) package tofu, drained and cubed\n\n\n1 cup green onion, finely chopped"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  Thai chile, chopped\n\n\n2 cloves garlic, chopped\n\n\n1 (1/2 inch) piece fresh ginger, minced\n\n\n1 tablespoon black bean sauce\n\n\n2 tablespoons dark soy sauce\n\n\n2 tablespoons white soy sauce\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon white sugar\n\n\n1 pinch white pepper\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon cold water\n\n\n¾ pound white fish fillets\n\n\n1 (16 ounce) package tofu, drained and cubed\n\n\n1 cup green onion, finely chopped'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring about 1 1/2 inches of water to boil in a pot fitted with a steamer basket."},{"recipe_directions":"In a large bowl, stir together the chile, garlic, ginger, and black bean sauce. Stir in dark and white soy sauces, vegetable oil, sugar, and white pepper. In a small cup, mix together the cornstarch and water. Stir into the sauce. Cut fish fillets into thin strips, add to bowl, and coat well."},{"recipe_directions":"When water in steamer has reached a boil, carefully place the tofu cubes in a single layer in the basket, and steam, covered, for 2 minutes. Place the fish strips on top of the tofu; cover and steam for another 3 minutes."},{"recipe_directions":"Remove and garnish with chopped green onion. Serve with steamed white rice and stir-fried or steamed Asian vegetables."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"280\nCalories\n\n\n14g \nFat\n\n\n13g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641569-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OeZGAMYbKwv_w9iplhIwsKhaI50=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1109x0:1111x2):format(webp)/6713721-ba475df22f1b4699a83270c1a797acbe.jpg"
@@ -656,59 +969,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263495/chinese-honey-walnut-shrimp/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Chinese Honey-Walnut Shrimp</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon egg white\n\n\n¼ teaspoon salt\n\n\n8 ounces uncooked medium shrimp, peeled and deveined\n\n\n¼ cup water\n\n\n¼ cup white sugar\n\n\n½ cup walnut halves\n\n\n3 tablespoons mayonnaise\n\n\n½ tablespoon honey\n\n\n½ tablespoon sweetened condensed milk\n\n\n1 teaspoon lemon juice\n\n\n⅓ cup cornstarch\n\n\n  vegetable oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon egg white\n\n\n¼ teaspoon salt\n\n\n8 ounces uncooked medium shrimp, peeled and deveined\n\n\n¼ cup water\n\n\n¼ cup white sugar\n\n\n½ cup walnut halves\n\n\n3 tablespoons mayonnaise\n\n\n½ tablespoon honey\n\n\n½ tablespoon sweetened condensed milk\n\n\n1 teaspoon lemon juice\n\n\n⅓ cup cornstarch\n\n\n  vegetable oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix egg white and salt together in a bowl; add shrimp and toss to coat evenly. Cover and let shrimp marinate in the refrigerator for 30 minutes."},{"recipe_directions":"Bring water to a boil in a small saucepan. Add sugar; cook until dissolved, about 1 minute. Add walnuts. Turn heat down to medium-low. Cook, stirring occasionally, until syrup thickens and turns into a dark caramel color, 4 to 7 minutes."},{"recipe_directions":"Line a baking sheet. Pour walnuts onto the baking sheet, spacing the pieces apart. Let cool."},{"recipe_directions":"Mix mayonnaise, honey, condensed milk, and lemon juice together in a small bowl for the dressing."},{"recipe_directions":"Drain excess liquid from the shrimp. Place cornstarch in a plastic sandwich bag. Toss shrimp in the cornstarch in batches."},{"recipe_directions":"Heat 2 to 3 inches of oil in a medium to large pot to 350 degrees F (175 degrees C). Drop shrimp carefully into the hot oil in batches; fry until golden brown, about 3 minutes per batch. Drain on paper towels to preserve crispiness."},{"recipe_directions":"Serve shrimp with the walnuts and honey dressing."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"709\nCalories\n\n\n45g \nFat\n\n\n56g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641575-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -722,59 +1031,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257928/chinese-steamed-sea-bass/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Chinese Steamed Sea Bass</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n33 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound whole sea bass - cleaned, rinsed, and patted dry\n\n\n  salt to taste\n\n\n5  spring onions, thinly sliced\n\n\n¼ cup peeled and thinly sliced ginger\n\n\n¼ cup soy sauce\n\n\n¼ cup chile oil\n\n\n1 tablespoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound whole sea bass - cleaned, rinsed, and patted dry\n\n\n  salt to taste\n\n\n5  spring onions, thinly sliced\n\n\n¼ cup peeled and thinly sliced ginger\n\n\n¼ cup soy sauce\n\n\n¼ cup chile oil\n\n\n1 tablespoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Season sea bass with salt."},{"recipe_directions":"Place 1/3 of the spring onions and ginger onto a glass or ceramic plate; cover with sea bass. Scatter remaining spring onions and ginger over the sea bass."},{"recipe_directions":"Bring a wide pot of water to a boil. Set a rack inside the boiling water; place the plate of sea bass on top. Cover pot and steam until sea bass flakes easily with a fork, 8 to 10 minutes. Pour out any water that may have collected on the plate."},{"recipe_directions":"Mix soy sauce, chile oil, and sugar together in a small bowl; pour over the sea bass before serving."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"476\nCalories\n\n\n27g \nFat\n\n\n13g \nCarbs\n\n\n45g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641581-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ni2YkT-0MpcN7sgshPKph3hU4I0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/822184-06edf67c7b9549cdb5daa3aea4cd2c18.jpg"
@@ -787,59 +1092,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/53551/chinese-style-steamed-fish/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Chinese-Style Steamed Fish</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds halibut, cut into 4 pieces\n\n\n3  green onions, cut into 3 inch lengths\n\n\n2  fresh mushrooms, sliced\n\n\n6 leaves napa cabbage, sliced into 4 inch pieces\n\n\n2 slices fresh ginger root, finely chopped\n\n\n2 cloves garlic, chopped\n\n\n¼ cup low-sodium soy sauce\n\n\n⅛ cup water\n\n\n  crushed red pepper flakes to taste\n\n\n  fresh cilantro sprigs, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds halibut, cut into 4 pieces\n\n\n3  green onions, cut into 3 inch lengths\n\n\n2  fresh mushrooms, sliced\n\n\n6 leaves napa cabbage, sliced into 4 inch pieces\n\n\n2 slices fresh ginger root, finely chopped\n\n\n2 cloves garlic, chopped\n\n\n¼ cup low-sodium soy sauce\n\n\n⅛ cup water\n\n\n  crushed red pepper flakes to taste\n\n\n  fresh cilantro sprigs, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange 1/2 of the green onions on the bottom of the steaming bowl (it is important to steam in a container in order to retain the steam and juices around the fish). Place 1/2 of the mushrooms and Napa cabbage sections on top of the onions. Place fish on top of the vegetables. Sprinkle ginger, garlic, and red pepper flakes over fish. Top with the remaining green onions, mushrooms, and napa cabbage. Drizzle soy sauce and water over everything."},{"recipe_directions":"Place steam bowl in a steamer over 1 inch of boiling water, and cover. Steam for 15 to 20 minutes, or until fish flakes easily. Garnish with cilantro, if desired."},{"recipe_directions":"Halibut, cod, or any firm-fleshed white fish will work for this recipe."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"216\nCalories\n\n\n4g \nFat\n\n\n5g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641585-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hTY4kE9R6BxDmhkpK86WIZ2rVnc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1389x0:1391x2):format(webp)/5659507-bf9ad8f5e8704d64965ac1ab30d4b21c.jpg"
@@ -852,59 +1153,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/160957/slippery-shrimp/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Slippery Shrimp</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups peanut oil for frying\n\n\n1 pound peeled and deveined large shrimp\n\n\n¼ cup cornstarch\n\n\n2 large cloves garlic, minced\n\n\n½ teaspoon minced fresh ginger\n\n\n½ teaspoon cayenne pepper\n\n\n1 tablespoon white wine\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon ketchup\n\n\n5 teaspoons white sugar\n\n\n½ teaspoon salt\n\n\n¼ cup water\n\n\n2 teaspoons cornstarch\n\n\n2 teaspoons water\n\n\n5  green onions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups peanut oil for frying\n\n\n1 pound peeled and deveined large shrimp\n\n\n¼ cup cornstarch\n\n\n2 large cloves garlic, minced\n\n\n½ teaspoon minced fresh ginger\n\n\n½ teaspoon cayenne pepper\n\n\n1 tablespoon white wine\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon ketchup\n\n\n5 teaspoons white sugar\n\n\n½ teaspoon salt\n\n\n¼ cup water\n\n\n2 teaspoons cornstarch\n\n\n2 teaspoons water\n\n\n5  green onions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat peanut oil in a wok to 375 degrees F (190 degrees C)."},{"recipe_directions":"Toss the shrimp with 1/4 cup of cornstarch to coat, then drop into the hot oil, and quickly fry until golden brown, about 45 seconds. When done, drain shrimp, and set aside."},{"recipe_directions":"Pour all but 1 tablespoon of oil from the wok, then stir in the garlic, ginger, and cayenne pepper. Cook and stir until the garlic is fragrant and beginning to brown, about 30 seconds. Pour in the wine, vinegar, ketchup, sugar, salt, and 1/4 cup of water, and bring to a boil over high heat. Dissolve the cornstarch in 2 teaspoons of water, stir into the boiling sauce, and boil until thickened, about 1 minute. Stir the shrimp and green onions into the sauce until coated."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"258\nCalories\n\n\n12g \nFat\n\n\n17g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641587-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tSkLExw5s3-b4ol37yVN8zVtEME=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/4513430-05c5d4f1b95f4f88bc66c31c68971233.jpg"
@@ -917,59 +1214,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18792/szechuan-spicy-eggplant/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Szechuan Spicy Eggplant</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 1/2 pound) eggplant\n\n\n¼ cup soy sauce\n\n\n¼ cup chicken stock\n\n\n2 tablespoons oyster sauce (Optional)\n\n\n1 teaspoon chili sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup water\n\n\n1 tablespoon cornstarch\n\n\n  cooking spray\n\n\n4 large green onions, finely chopped\n\n\n1 tablespoon chopped fresh ginger root\n\n\n2 cloves garlic, minced\n\n\n⅓ pound lean ground beef\n\n\n¼ pound fresh shrimp - peeled, deveined, and diced\n\n\n1 tablespoon sesame oil\n\n\n4 cups hot cooked rice"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 1/2 pound) eggplant\n\n\n¼ cup soy sauce\n\n\n¼ cup chicken stock\n\n\n2 tablespoons oyster sauce (Optional)\n\n\n1 teaspoon chili sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup water\n\n\n1 tablespoon cornstarch\n\n\n  cooking spray\n\n\n4 large green onions, finely chopped\n\n\n1 tablespoon chopped fresh ginger root\n\n\n2 cloves garlic, minced\n\n\n⅓ pound lean ground beef\n\n\n¼ pound fresh shrimp - peeled, deveined, and diced\n\n\n1 tablespoon sesame oil\n\n\n4 cups hot cooked rice'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove eggplant stem and cut flesh into 1-inch cubes. Set aside."},{"recipe_directions":"Mix together soy sauce, stock, oyster sauce, chili sauce, sugar, and black pepper in a medium bowl until well combined; set aside. Stir together water and cornstarch in a small bowl until smooth; set aside."},{"recipe_directions":"Coat a large, deep pan with cooking spray over high heat and heat until very hot, about 3 minutes. Cook and stir 1/2 of the green onions, ginger, and garlic in the hot pan until lightly browned, 3 to 5 minutes. Add beef; cook and stir until lightly browned and crumbly, about 3 minutes."},{"recipe_directions":"Stir in eggplant, then pour soy sauce mixture over all. Cover the pan, reduce heat to medium low, and let simmer for 15 minutes, stirring occasionally. Add shrimp during the last few minutes of cooking."},{"recipe_directions":"Stir in cornstarch mixture and cook until thickened. Mix in remaining green onions and sesame oil. Serve over hot rice."},{"recipe_directions":"You can use 3 tablespoons dried shrimp instead of fresh shrimp; add with the garlic and ginger in step 3."},{"recipe_directions":"You can use ground pork instead of ground beef."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n13g \nFat\n\n\n62g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641591-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c97y3dMzff5akj_ks8bfFJI4qMU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9205458-shrimp-lo-mein-with-broccoli-Autumneyes-4x3-1-fd26a4e2e4dc4aa8b76e33ccb489376c.jpg"
@@ -983,59 +1276,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223101/shrimp-lo-mein-with-broccoli/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Shrimp Lo Mein with Broccoli</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package spaghetti\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons oyster sauce\n\n\n2 tablespoons brown sugar\n\n\n2 teaspoons fish sauce\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon ground ginger\n\n\n2 teaspoons vegetable oil\n\n\n1 pound uncooked medium shrimp, peeled and deveined\n\n\n1 cup chopped broccoli\n\n\n¼  yellow onion, thinly sliced\n\n\n3  crimini mushrooms, sliced\n\n\n2 cloves garlic, minced\n\n\n2 large eggs"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package spaghetti\n\n\n2 tablespoons soy sauce\n\n\n2 tablespoons oyster sauce\n\n\n2 tablespoons brown sugar\n\n\n2 teaspoons fish sauce\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon ground ginger\n\n\n2 teaspoons vegetable oil\n\n\n1 pound uncooked medium shrimp, peeled and deveined\n\n\n1 cup chopped broccoli\n\n\n¼  yellow onion, thinly sliced\n\n\n3  crimini mushrooms, sliced\n\n\n2 cloves garlic, minced\n\n\n2 large eggs'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook spaghetti in boiling water until cooked through yet firm to the bite, about 12 minutes; drain and set aside."},{"recipe_directions":"Meanwhile, mix together soy sauce, oyster sauce, brown sugar, fish sauce, garlic powder, and ginger in a small bowl until sugar dissolves; set sauce aside."},{"recipe_directions":"Heat oil in a large skillet or wok over medium heat; cook and stir shrimp in hot oil until they begin to turn reddish-pink, 1 to 2 minutes. Add broccoli, onion, and mushrooms; cook and stir until vegetables begin to soften, 3 to 5 minutes. Stir in garlic and cook for 30 seconds."},{"recipe_directions":"Push shrimp and vegetables to one side of the skillet. Cook eggs in the clear space in the skillet, scrambling lightly, until no longer wet, 3 to 5 minutes. Stir together cooked eggs, shrimp, and vegetables until combined. Add spaghetti and sauce; cook and stir until hot and evenly mixed, about 2 minutes more."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"834\nCalories\n\n\n14g \nFat\n\n\n110g \nCarbs\n\n\n64g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641597-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3bM2xldq5soOFfTZbvbtysj05Yk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/4941054-6438191c72d9455c9bd9cf3cf686e6be.jpg"
@@ -1048,59 +1337,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258062/congee/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Congee</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 15 mins\n\n\nTotal Time:\n 3 hrs 35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 cups chicken stock\n\n\n5 cups water\n\n\n1 cup white rice\n\n\n¼ cup apple cider vinegar\n\n\n2 tablespoons fish sauce\n\n\n1 tablespoon grated fresh ginger \n\n\n1 teaspoon salt\n\n\n¼ teaspoon sesame oil\n\n\n2 (6 ounce) fillets lean white fish, sliced\n\n\n¼ cup pickled Chinese vegetables\n\n\n¼ cup sliced Chinese roast pork\n\n\n2 tablespoons chopped scallions\n\n\n2 tablespoons crushed peanuts\n\n\n½ teaspoon vinegar, or to taste\n\n\n½ teaspoon soy sauce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 cups chicken stock\n\n\n5 cups water\n\n\n1 cup white rice\n\n\n¼ cup apple cider vinegar\n\n\n2 tablespoons fish sauce\n\n\n1 tablespoon grated fresh ginger \n\n\n1 teaspoon salt\n\n\n¼ teaspoon sesame oil\n\n\n2 (6 ounce) fillets lean white fish, sliced\n\n\n¼ cup pickled Chinese vegetables\n\n\n¼ cup sliced Chinese roast pork\n\n\n2 tablespoons chopped scallions\n\n\n2 tablespoons crushed peanuts\n\n\n½ teaspoon vinegar, or to taste\n\n\n½ teaspoon soy sauce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken stock, water, rice, 1/4 cup apple cider vinegar, fish sauce, ginger, salt, and sesame oil in a large stockpot; bring to a boil. Reduce heat and simmer until congee has thickened to the consistency of a light porridge, about 3 hours."},{"recipe_directions":"Stir fish into congee and simmer until cooked through, about 10 minutes."},{"recipe_directions":"Serve congee in bowls topped with pickled vegetables, roast pork, scallions, and peanuts. Drizzle 1/2 teaspoon vinegar and soy sauce over toppings."},{"recipe_directions":"Rice wine vinegar can be used in place of the apple cider vinegar, if desired. Pork floss (pork sung) can be used in place of the roast pork, if desired."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"205\nCalories\n\n\n3g \nFat\n\n\n28g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641605-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vfTlQfGuDSZYBC2ChPlVUrnfTL4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/691817-61cfaca239174199ab1630ca38a34355.jpg"
@@ -1113,59 +1398,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/167942/hunan-kung-pao/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Hunan Kung Pao</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n20  peeled and deveined large shrimp (21 to 30 per pound)\n\n\n4 teaspoons soy sauce\n\n\n4 teaspoons rice wine\n\n\n2 teaspoons sesame oil (Optional)\n\n\n1 tablespoon cornstarch\n\n\n½ cup vegetable oil, divided\n\n\n4 cloves garlic, minced\n\n\n16  dried red chile peppers, cut in half\n\n\n2 teaspoons Sichuan peppercorns (Optional)\n\n\n1  red bell pepper, sliced\n\n\n1  green bell pepper, sliced\n\n\n¼ cup dark soy sauce\n\n\n2 tablespoons rice wine\n\n\n2 teaspoons white sugar\n\n\n1 cup salted peanuts\n\n\n4  green onions, cut into 3 inch lengths\n\n\n2 dashes sesame oil, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n20  peeled and deveined large shrimp (21 to 30 per pound)\n\n\n4 teaspoons soy sauce\n\n\n4 teaspoons rice wine\n\n\n2 teaspoons sesame oil (Optional)\n\n\n1 tablespoon cornstarch\n\n\n½ cup vegetable oil, divided\n\n\n4 cloves garlic, minced\n\n\n16  dried red chile peppers, cut in half\n\n\n2 teaspoons Sichuan peppercorns (Optional)\n\n\n1  red bell pepper, sliced\n\n\n1  green bell pepper, sliced\n\n\n¼ cup dark soy sauce\n\n\n2 tablespoons rice wine\n\n\n2 teaspoons white sugar\n\n\n1 cup salted peanuts\n\n\n4  green onions, cut into 3 inch lengths\n\n\n2 dashes sesame oil, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken and shrimp in a mixing bowl along with 4 teaspoons soy sauce, 4 teaspoons rice wine, and 2 teaspoons sesame oil. Sprinkle with cornstarch, and mix until evenly combined. Set aside to marinate for 25 minutes."},{"recipe_directions":"Heat 1/2 of the vegetable oil in a wok over high heat. Stir in chicken mixture and cook until chicken has turned white on the outside and is still a bit pink in the center, about 5 minutes. Remove chicken mixture and wipe the wok clean."},{"recipe_directions":"Heat remaining vegetable oil over high heat. Stir in garlic; cook for a few seconds until garlic begins to turn brown. Stir in dried chiles and Sichuan peppercorns; cook and stir for a few seconds until peppers begin to darken."},{"recipe_directions":"Add red and green bell peppers, dark soy sauce, 2 tablespoons rice wine, and sugar. Bring to a boil and stir in chicken mixture. Cook until peppers are nearly tender and chicken is no longer pink in the center, about 5 minutes more. Stir in peanuts and green onion until green onion becomes limp. Stir in a few drops of sesame oil to serve."},{"recipe_directions":"Substitute cashews for the peanuts, if you prefer."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"790\nCalories\n\n\n52g \nFat\n\n\n21g \nCarbs\n\n\n59g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641609-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7cDkqwRFILQFosEMCrjlR7bK2HA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/1001326-steamed-garlic-prawns-chinese-style-Arizona-Desert-Flower-4x3-1-d3b2af23bd0d41b792a903ac1b9a5bb7.jpg"
@@ -1179,59 +1460,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19514/steamed-garlic-prawns-chinese-style/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Steamed Garlic Prawns, Chinese Style</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"20 large tiger prawns with shell\n\n\n2 tablespoons light soy sauce\n\n\n5 cloves garlic, minced\n\n\n1 teaspoon brandy"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '20 large tiger prawns with shell\n\n\n2 tablespoons light soy sauce\n\n\n5 cloves garlic, minced\n\n\n1 teaspoon brandy'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wash prawns thoroughly and leave shells and heads on. Mix soy sauce, garlic, and brandy in a bowl. Arrange prawns on a dish, and cover with soy sauce mixture."},{"recipe_directions":"Fill a pot or wok about 1/2 full with water. Place a steamer basket over the water and bring to a boil. Place the dish with prawns onto the steamer basket. Cover wok, and steam prawns for 10 minutes, until opaque. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"67\nCalories\n\n\n1g \nFat\n\n\n2g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641614-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iS6sVh5u1k8sxorCqhwjgSmcIZ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/692888-potstickers-chinese-dumplings-LZakaria-1x1-1-745d59650b2243ccb96f2017267de296.jpg"
@@ -1245,59 +1522,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202975/potstickers-chinese-dumplings/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Potstickers (Chinese Dumplings)</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n50 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n 1 hr 2 mins\n\n\nServings:\n12 \n\n\nYield:\n50 potstickers"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound raw shrimp, peeled and deveined \n\n\n4 pounds ground beef\n\n\n1 tablespoon minced fresh ginger root\n\n\n1  shallot, minced\n\n\n1 bunch green onions, chopped\n\n\n3 leaves napa cabbage, chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon Asian (toasted) sesame oil\n\n\n  salt and white pepper to taste\n\n\n1 pinch white sugar\n\n\n1 (10 ounce) package round gyoza/potsticker wrappers\n\n\n  vegetable oil\n\n\n¼ cup water"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound raw shrimp, peeled and deveined \n\n\n4 pounds ground beef\n\n\n1 tablespoon minced fresh ginger root\n\n\n1  shallot, minced\n\n\n1 bunch green onions, chopped\n\n\n3 leaves napa cabbage, chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon Asian (toasted) sesame oil\n\n\n  salt and white pepper to taste\n\n\n1 pinch white sugar\n\n\n1 (10 ounce) package round gyoza/potsticker wrappers\n\n\n  vegetable oil\n\n\n¼ cup water'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the shrimp in the work bowl of a food processor, and process until the shrimp are finely ground. Set aside in a large bowl. Working in batches, process the ground beef to a fine grind, and set aside with the shrimp. Combine the shrimp and ground beef with ginger, shallot, green onions, napa cabbage, soy sauce, sesame oil, salt and pepper, and white sugar, and mix the ingredients until thoroughly combined."},{"recipe_directions":"To fill the pot stickers, place a wrapper on a work surface in front of you, and place a scant teaspoon of filling in the center. With a wet finger, dampen the edges of the wrapper. Fold the dough into a half-moon shape, enclosing the filling, and press and seal to remove extra air and tightly seal the edges together. It's nice to fold several small pleats in the top half of the wrapper for a traditional look before you seal in the filling. Refrigerate the filled wrappers on a parchment-lined baking sheet while you finish filling and sealing the pot stickers."},{"recipe_directions":"Heat the oil in a large nonstick skillet with a lid over medium heat. Place pot stickers into the hot oil, flat sides down, without crowding, and let fry until the bottoms are golden brown, 1 to 2 minutes. Turn the dumplings over, and pour the water over them. Cover the pan with a lid and let the dumplings steam until the water has nearly evaporated and the dumplings have begun to fry in oil again, 5 to 7 minutes. Uncover the skillet, and let the pot stickers cook until all the water is evaporated and the wrapper has shrunk down tightly onto the filling, another 2 to 3 minutes."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of filling. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"411\nCalories\n\n\n22g \nFat\n\n\n16g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641617-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/scF12TqXzzQNZslHp6yuGe78kwY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/1563257-shrimp-stir-fry-with-egg-noodles-Abbey-4x3-1-2fabc46ba8e140fba34d9c3c699d0cd8.jpg"
@@ -1311,59 +1584,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231680/shrimp-stir-fry-with-egg-noodles/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Shrimp Stir Fry With Egg Noodles</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh Chinese egg noodles\n\n\n2 tablespoons olive oil\n\n\n⅓ cup chopped onion\n\n\n1 clove garlic, chopped\n\n\n¾ cup broccoli florets\n\n\n½ cup chopped red bell pepper\n\n\n2 cups cooked shrimp\n\n\n½ cup sliced water chestnuts, drained\n\n\n½ cup baby corn, drained\n\n\n½ cup canned sliced bamboo shoots, drained\n\n\n3 tablespoons oyster sauce\n\n\n1 tablespoon red pepper flakes, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh Chinese egg noodles\n\n\n2 tablespoons olive oil\n\n\n⅓ cup chopped onion\n\n\n1 clove garlic, chopped\n\n\n¾ cup broccoli florets\n\n\n½ cup chopped red bell pepper\n\n\n2 cups cooked shrimp\n\n\n½ cup sliced water chestnuts, drained\n\n\n½ cup baby corn, drained\n\n\n½ cup canned sliced bamboo shoots, drained\n\n\n3 tablespoons oyster sauce\n\n\n1 tablespoon red pepper flakes, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water and bring to a rolling boil over high heat; stir in noodles and return to a boil. Cook until pasta floats to the top, about 1 to 2 minutes; drain."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat; cook and stir onion and garlic for about 1 minute. Add broccoli and bell pepper; cook and stir until just tender, about 3 minutes. Stir in shrimp, water chestnuts, baby corn, bamboo shoots, oyster sauce, and red pepper flakes. Continue cooking until shrimp and vegetables are heated through, about 3 minutes more."},{"recipe_directions":"Serve shrimp and vegetables over noodles."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"322\nCalories\n\n\n6g \nFat\n\n\n49g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641620-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zLZrbZIeAct_44XruJ9BbYLuR4U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/436122-bec61e13bf6c42f1be73493cce212580.jpg"
@@ -1376,59 +1645,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/169616/chinese-take-out-shrimp-with-garlic/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Chinese Take-Out Shrimp with Garlic</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons canola oil\n\n\n10 cloves garlic, chopped\n\n\n1 teaspoon minced fresh ginger root\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n1 cup snow peas\n\n\n1 cup small white button mushrooms \n\n\n1 teaspoon crushed red pepper flakes\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 pound peeled and deveined jumbo shrimp\n\n\n½ cup chicken broth\n\n\n1 tablespoon rice vinegar\n\n\n2 tablespoons fish sauce\n\n\n2 tablespoons dry sherry\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon water"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons canola oil\n\n\n10 cloves garlic, chopped\n\n\n1 teaspoon minced fresh ginger root\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n1 cup snow peas\n\n\n1 cup small white button mushrooms \n\n\n1 teaspoon crushed red pepper flakes\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 pound peeled and deveined jumbo shrimp\n\n\n½ cup chicken broth\n\n\n1 tablespoon rice vinegar\n\n\n2 tablespoons fish sauce\n\n\n2 tablespoons dry sherry\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon water'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in wok or large skillet until very hot. Cook and stir garlic and ginger in the hot oil until fragrant, about 30 seconds. Add the water chestnuts, snow peas, mushrooms, red pepper flakes, salt, pepper, and shrimp to the pan. Cook, stirring, until shrimp turns pink, 2 to 3 minutes."},{"recipe_directions":"Combine the chicken broth, rice vinegar, fish sauce, and dry sherry in a small bowl. Pour into the shrimp mixture; cook and stir briefly to combine. Combine the cornstarch and water and stir into the wok. Stir until sauce has thickened, about 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"226\nCalories\n\n\n8g \nFat\n\n\n16g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641623-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6lQW9UYzpDmMDCuc6zgM4Dt_zMk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1893944-a0648b9a69084676abe02e9209da1502.jpg"
@@ -1441,59 +1706,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35426/cantonese-style-lobster/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Cantonese Style Lobster</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 small (1 pound) fresh live lobsters\n\n\n⅓ cup peanut oil, divided\n\n\n1 clove garlic, crushed\n\n\n1 slice fresh ginger root, minced\n\n\n6 ounces lean ground pork\n\n\n1 cup chicken broth\n\n\n1 tablespoon cooking sherry\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon brown sugar\n\n\n2  eggs, beaten\n\n\n3  green onions, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 small (1 pound) fresh live lobsters\n\n\n⅓ cup peanut oil, divided\n\n\n1 clove garlic, crushed\n\n\n1 slice fresh ginger root, minced\n\n\n6 ounces lean ground pork\n\n\n1 cup chicken broth\n\n\n1 tablespoon cooking sherry\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon brown sugar\n\n\n2  eggs, beaten\n\n\n3  green onions, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse the lobster, and hold it belly up. At the bottom of the tail, there is a small opening, stick a long skewer in it to drain any urine left in its' body, then crack the tail off, chop the tail into small pieces, and crack the claws in half as well. If you know how to eat the body of the lobster, cut it up and throw it on the pile too."},{"recipe_directions":"Heat half of the peanut oil in a deep heavy skillet over medium heat. Add the crushed garlic, and fry for about 1 minute. Throw in the lobster pieces, and fry until they are cooked through, about 4 to 5 minutes. Remove the lobster and garlic mixture to a dish and keep warm."},{"recipe_directions":"Heat the remaining oil in the skillet. Add the minced ginger and pork, and fry until the pork is no longer pink. Pour in the chicken broth, and bring to a boil, stirring constantly. In a small bowl, mix together the sherry, soy sauce, cornstarch and brown sugar until well blended. Add the sherry mixture to the pan, and stir-fry for a minute or two, until the sauce becomes thick and somewhat clear."},{"recipe_directions":"Stir in the green onions, and turn the heat off. Drizzle the beaten eggs over the mixture in the pan, and stir until the eggs are in little pieces. Finally, return the lobster to the pan, and cook over low heat for a few minutes to blend the flavors. Transfer to a serving dish, and let stand, covered, for a few minutes before serving. Eat with steamed rice and enjoy, cause you worked hard!"}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"538\nCalories\n\n\n32g \nFat\n\n\n7g \nCarbs\n\n\n54g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641630-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4h0_YlaJXW4aW-1j7nh4YgqxL4s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/277955air-fryer-crab-rangoonLindsay4x3-6f3ecae5ade64d7c9819cb8cac97da0a.jpg"
@@ -1507,59 +1768,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277955/air-fryer-crab-rangoon/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Air Fryer Crab Rangoon</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n24 dumplings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n4 ounces lump crab meat\n\n\n2 tablespoons chopped scallions\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon Worcestershire sauce\n\n\n1  serving nonstick cooking spray\n\n\n24  wonton wrappers\n\n\n2 tablespoons Asian sweet chili sauce, for dipping"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package cream cheese, softened\n\n\n4 ounces lump crab meat\n\n\n2 tablespoons chopped scallions\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon Worcestershire sauce\n\n\n1  serving nonstick cooking spray\n\n\n24  wonton wrappers\n\n\n2 tablespoons Asian sweet chili sauce, for dipping'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cream cheese, crab meat, scallions, soy sauce, and Worcestershire sauce in a bowl; stir until evenly combined."},{"recipe_directions":"Preheat an air fryer to 350 degrees F (175 degrees C). Spray the basket of the air fryer with cooking spray. Fill a small bowl with warm water."},{"recipe_directions":"Place 12 wonton wrappers on a clean work surface. Spoon 1 teaspoon of cream cheese mixture into the center of each wonton wrapper. Dip index finger into the warm water and wet around the sides of each wonton wrapper. Crimp wrapper corners upwards to meet in the center to form dumplings."},{"recipe_directions":"Place dumplings in the prepared basket and spray the tops with cooking spray."},{"recipe_directions":"Cook dumplings until desired crispness, about 8 to 10 minutes. Transfer to a paper towel-lined plate."},{"recipe_directions":"While first batch is cooking, assemble remaining dumplings with the remaining wrappers and filling."},{"recipe_directions":"Serve with sweet chili sauce for dipping."},{"recipe_directions":"You can use imitation crab instead of lump crab meat."},{"recipe_directions":"The dumplings can be made ahead and frozen for later use. Place uncooked dumplings on a baking sheet, making sure they are not touching. Freeze for 2 hours or until solid. Transfer dumplings to a freezer-safe container. Dumplings can be cooked frozen in the air fryer but you will need to add 3 minutes to the cook time."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"127\nCalories\n\n\n7g \nFat\n\n\n11g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641636-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DILMe5P2m5G9NM3-WDh1AqyMCeo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7096749-2569724802834d16aa23278535443ce8.jpg"
@@ -1572,59 +1829,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24502/egg-foo-young/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Egg Foo Young</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon sesame oil\n\n\n1 cup chopped onion\n\n\n¼ cup chopped green onion\n\n\n½ cup chopped celery\n\n\n1 cup bean sprouts\n\n\n¼ teaspoon cornstarch\n\n\n½ pound shrimp, peeled, deveined and roughly chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon salt\n\n\n8  eggs, well beaten"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon sesame oil\n\n\n1 cup chopped onion\n\n\n¼ cup chopped green onion\n\n\n½ cup chopped celery\n\n\n1 cup bean sprouts\n\n\n¼ teaspoon cornstarch\n\n\n½ pound shrimp, peeled, deveined and roughly chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon salt\n\n\n8  eggs, well beaten'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a skillet over medium heat, heat sesame oil and lightly fry the onions, celery and sprouts. Stir in cornstarch and add shrimp, soy sauce and salt. Stir until well blended. Remove from heat and transfer to a bowl."},{"recipe_directions":"Return the pan to the heat, and add the beaten eggs. Fry the eggs while stirring gently. Return the vegetable and shrimp mixture to the pan while the eggs are still liquid. Finish frying until eggs are fully cooked."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n12g \nFat\n\n\n8g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641640-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/d8Eg4RXWhRk0ADetIyOvQTxZgLY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2025x1612:2027x1614):format(webp)/140570-steamed-fish-with-ginger-JF-R309054_14177_4x3-3da7923d8ae3416594f15599301c8147.jpg"
@@ -1638,59 +1891,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140570/steamed-fish-with-ginger/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Steamed Fish with Ginger</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound halibut fillet\n\n\n1 teaspoon coarse sea salt or kosher salt\n\n\n1 tablespoon minced fresh ginger\n\n\n3 tablespoons thinly sliced green onion\n\n\n1 tablespoon dark soy sauce\n\n\n1 tablespoon light soy sauce\n\n\n1 tablespoon peanut oil\n\n\n2 teaspoons toasted sesame oil\n\n\n¼ cup lightly packed fresh cilantro sprigs"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound halibut fillet\n\n\n1 teaspoon coarse sea salt or kosher salt\n\n\n1 tablespoon minced fresh ginger\n\n\n3 tablespoons thinly sliced green onion\n\n\n1 tablespoon dark soy sauce\n\n\n1 tablespoon light soy sauce\n\n\n1 tablespoon peanut oil\n\n\n2 teaspoons toasted sesame oil\n\n\n¼ cup lightly packed fresh cilantro sprigs'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pat halibut dry with paper towels. Rub both sides of fillet with salt. Scatter the ginger over the top of the fish and place onto a heatproof ceramic dish."},{"recipe_directions":"Place into a bamboo steamer set over several inches of gently boiling water, and cover. Gently steam for 10 to 12 minutes."},{"recipe_directions":"Pour accumulated water out of the dish and sprinkle the fillet with green onion. Drizzle both soy sauces over the surface of the fish."},{"recipe_directions":"Heat peanut and sesame oils in a small skillet over medium-high heat until they begin to smoke. When the oil is hot, carefully pour on top of the halibut fillet. The very hot oil will cause the green onions and water on top of the fish to pop and spatter all over; be careful. Garnish with cilantro sprigs and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"361\nCalories\n\n\n17g \nFat\n\n\n2g \nCarbs\n\n\n48g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641647-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hiFgCYci9Al2OVUJdF2AqvzJkPU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8201615-szechwan-shrimp-Joy-Flowers-Best-1x1-1-16d772fb06f6482dae75ea70a4fe6964.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86230/szechwan-shrimp/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Szechwan Shrimp</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons water\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons cornstarch\n\n\n1 teaspoon honey\n\n\n½ teaspoon crushed red pepper\n\n\n¼ teaspoon ground ginger\n\n\n1 tablespoon vegetable oil\n\n\n¼ cup sliced green onions\n\n\n4 cloves garlic, minced\n\n\n12 ounces cooked shrimp, tails removed"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons water\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons cornstarch\n\n\n1 teaspoon honey\n\n\n½ teaspoon crushed red pepper\n\n\n¼ teaspoon ground ginger\n\n\n1 tablespoon vegetable oil\n\n\n¼ cup sliced green onions\n\n\n4 cloves garlic, minced\n\n\n12 ounces cooked shrimp, tails removed'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together water, ketchup, soy sauce, cornstarch, honey, crushed red pepper, and ground ginger in a small bowl until combined. Set aside."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Cook and stir green onions and garlic in hot oil until fragrant, about 30 seconds. Stir in cooked shrimp; toss to coat with oil. Pour in ketchup mixture. Cook and stir until sauce is bubbly and thickened."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641654-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1903/world-cuisine/asian/chinese/main-dishes/seafood/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lvpRguiaTlTZdSufiS5jPP4k20E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/878724-shrimp-with-lobster-sauce-twoyorkiesmom-4x3-1-9b26e304e1e44840b9141037a6f22c2c.jpg"
@@ -1770,42 +2015,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57716/shrimp-with-lobster-sauce/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Shrimp with Lobster Sauce</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ teaspoons cornstarch\n\n\n2 teaspoons cooking sherry\n\n\n1 pound medium shrimp - peeled and deveined\n\n\n¼ cup vegetable oil\n\n\n2 cloves garlic, minced\n\n\n¼ pound ground pork\n\n\n1 cup water\n\n\n2 tablespoons soy sauce\n\n\n¼ teaspoon sugar\n\n\n½ teaspoon salt\n\n\n¼ cup cold water\n\n\n1 ½ tablespoons cornstarch\n\n\n1 large egg, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ teaspoons cornstarch\n\n\n2 teaspoons cooking sherry\n\n\n1 pound medium shrimp - peeled and deveined\n\n\n¼ cup vegetable oil\n\n\n2 cloves garlic, minced\n\n\n¼ pound ground pork\n\n\n1 cup water\n\n\n2 tablespoons soy sauce\n\n\n¼ teaspoon sugar\n\n\n½ teaspoon salt\n\n\n¼ cup cold water\n\n\n1 ½ tablespoons cornstarch\n\n\n1 large egg, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve 1 1/2 teaspoons cornstarch in sherry in a medium bowl. Add shrimp and toss to coat."},{"recipe_directions":"Heat oil in a wok over medium-high heat. Add shrimp and stir-fry until pink, 3 to 5 minutes. Use a slotted spoon to transfer shrimp to a plate; leave as much oil in the wok as possible."},{"recipe_directions":"Add garlic to the wok and stir-fry for a few seconds, then add ground pork. Stir-fry until pork is no longer pink, 3 to 5 minutes."},{"recipe_directions":"Mix 1 cup water, soy sauce, sugar, and salt together in a small bowl; pour into the wok and stir to combine. Bring to a boil, then cover, reduce the heat to medium, and simmer for about 2 minutes."},{"recipe_directions":"Whisk 1/4 cup cold water and 1 1/2 tablespoons cornstarch together in a small bowl; pour into the wok. Add shrimp and bring to a simmer. Drizzle beaten egg into the wok, stirring quickly as it cooks. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n20g \nFat\n\n\n5g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>